--- a/TestData/TMTI0056871_VerifyNewJobTypes_UpdatedonReportsObject.xlsx
+++ b/TestData/TMTI0056871_VerifyNewJobTypes_UpdatedonReportsObject.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D2B276-C9C1-46AD-B929-1174E00B9F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD93AD65-3599-47B0-9998-57087686908D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="2760" yWindow="2685" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JobType" sheetId="1" r:id="rId1"/>
+    <sheet name="FilterRecord" sheetId="1" r:id="rId1"/>
     <sheet name="ReportOption" sheetId="2" r:id="rId2"/>
     <sheet name="Filter" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
-  </si>
-  <si>
-    <t>JobType</t>
   </si>
   <si>
     <t>ReportOption</t>
@@ -45,6 +42,18 @@
   </si>
   <si>
     <t>Job Type</t>
+  </si>
+  <si>
+    <t>Industry Group</t>
+  </si>
+  <si>
+    <t>TECH - Technology</t>
+  </si>
+  <si>
+    <t>FilterRecordValue</t>
+  </si>
+  <si>
+    <t>Engagements</t>
   </si>
 </sst>
 </file>
@@ -818,15 +827,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -852,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="1"/>
@@ -894,6 +903,11 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -902,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7844CFF-DF24-4FA9-AB12-6942874C4BE0}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,12 +929,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -931,24 +950,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6EA5A7-3744-4870-9EFE-37BE40B28C4D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/TestData/TMTI0056871_VerifyNewJobTypes_UpdatedonReportsObject.xlsx
+++ b/TestData/TMTI0056871_VerifyNewJobTypes_UpdatedonReportsObject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD93AD65-3599-47B0-9998-57087686908D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1513B4-B0A6-4CCE-82C4-06481B35FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="948" yWindow="900" windowWidth="21540" windowHeight="10272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilterRecord" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Engagements</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>Lender Education</t>
   </si>
 </sst>
 </file>
@@ -827,15 +833,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -908,6 +914,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -916,10 +932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7844CFF-DF24-4FA9-AB12-6942874C4BE0}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,6 +958,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -950,10 +976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6EA5A7-3744-4870-9EFE-37BE40B28C4D}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +1002,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TMTI0056871_VerifyNewJobTypes_UpdatedonReportsObject.xlsx
+++ b/TestData/TMTI0056871_VerifyNewJobTypes_UpdatedonReportsObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1513B4-B0A6-4CCE-82C4-06481B35FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAC9C2-17EE-4352-8CDD-A454D5134873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="948" yWindow="900" windowWidth="21540" windowHeight="10272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1530" yWindow="780" windowWidth="21600" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilterRecord" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Lender Education</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
   </si>
 </sst>
 </file>
@@ -833,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,6 +927,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -932,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7844CFF-DF24-4FA9-AB12-6942874C4BE0}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +976,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -976,10 +989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6EA5A7-3744-4870-9EFE-37BE40B28C4D}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1025,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
